--- a/docs/Gantt chart-Nbody Sim.xlsx
+++ b/docs/Gantt chart-Nbody Sim.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yojik\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yojik\Desktop\project\N-Body-Simulation\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84BA6974-CD55-4184-AD06-92B082B77E2E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{003771B4-C606-48FF-8C0C-F8DD11F8E3F3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{C2EA123B-2299-4C12-A7E5-B998F35DEDC0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Создание визуализации</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>Получение результатов введения CUDA</t>
+  </si>
+  <si>
+    <t>Создание Win-версии проекта</t>
+  </si>
+  <si>
+    <t>Тестирование совместимости с Win-версией</t>
+  </si>
+  <si>
+    <t>Введение файлов HDF5 в экплуатацию</t>
   </si>
 </sst>
 </file>
@@ -314,17 +323,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,14 +347,14 @@
     <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -356,91 +365,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -647,7 +572,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$26</c:f>
+              <c:f>Лист1!$A$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -675,12 +600,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$26</c:f>
+              <c:f>Лист1!$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>62</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -696,7 +621,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$A$27</c:f>
+              <c:f>Лист1!$A$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -724,12 +649,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$27</c:f>
+              <c:f>Лист1!$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>191</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,13 +1479,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>375311</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>145038</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>661061</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>30738</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1886,13 +1811,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FD09599-0322-457F-8987-5C632B80A942}">
-  <dimension ref="A1:IX28"/>
+  <dimension ref="A1:IX31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" ySplit="4" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M35" sqref="M35"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -1941,58 +1866,58 @@
       <c r="B3" s="17"/>
       <c r="C3" s="18">
         <f ca="1">TODAY()</f>
-        <v>45979</v>
+        <v>46013</v>
       </c>
       <c r="D3" s="18"/>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13" t="s">
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13"/>
-      <c r="AL3" s="14" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
+      <c r="V3" s="20"/>
+      <c r="W3" s="20"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
+      <c r="AB3" s="20"/>
+      <c r="AC3" s="20"/>
+      <c r="AD3" s="20"/>
+      <c r="AE3" s="20"/>
+      <c r="AF3" s="20"/>
+      <c r="AG3" s="20"/>
+      <c r="AH3" s="20"/>
+      <c r="AI3" s="20"/>
+      <c r="AJ3" s="20"/>
+      <c r="AK3" s="20"/>
+      <c r="AL3" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AM3" s="14"/>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
+      <c r="AM3" s="21"/>
+      <c r="AN3" s="21"/>
+      <c r="AO3" s="21"/>
     </row>
     <row r="4" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="10" t="s">
         <v>8</v>
       </c>
@@ -2337,7 +2262,7 @@
         <v>45917</v>
       </c>
       <c r="D5" s="3">
-        <v>45931</v>
+        <v>45938</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
@@ -2594,11 +2519,11 @@
       <c r="IW5" s="9"/>
       <c r="IX5" s="9"/>
     </row>
-    <row r="6" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+    <row r="6" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="3">
         <v>45917</v>
       </c>
@@ -2606,11 +2531,11 @@
         <v>45931</v>
       </c>
     </row>
-    <row r="7" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="3">
         <v>45917</v>
       </c>
@@ -2618,1186 +2543,452 @@
         <v>45924</v>
       </c>
     </row>
-    <row r="8" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="15"/>
+    <row r="8" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="3">
         <v>45931</v>
       </c>
       <c r="D8" s="3">
-        <v>45987</v>
+        <v>45938</v>
       </c>
     </row>
-    <row r="9" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15"/>
       <c r="C9" s="3">
         <v>45931</v>
       </c>
       <c r="D9" s="3">
+        <v>45987</v>
+      </c>
+    </row>
+    <row r="10" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3">
+        <v>45931</v>
+      </c>
+      <c r="D10" s="3">
         <v>45945</v>
       </c>
     </row>
-    <row r="10" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="3">
+      <c r="B11" s="12"/>
+      <c r="C11" s="3">
         <v>45945</v>
-      </c>
-      <c r="D10" s="3">
-        <v>45966</v>
-      </c>
-    </row>
-    <row r="11" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="3">
-        <v>45959</v>
       </c>
       <c r="D11" s="3">
         <v>45966</v>
       </c>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
-      <c r="Q11"/>
-      <c r="R11"/>
-      <c r="S11"/>
-      <c r="T11"/>
-      <c r="U11"/>
-      <c r="V11"/>
-      <c r="W11"/>
-      <c r="X11"/>
-      <c r="Y11"/>
-      <c r="Z11"/>
-      <c r="AA11"/>
-      <c r="AB11"/>
-      <c r="AC11"/>
-      <c r="AD11"/>
-      <c r="AE11"/>
-      <c r="AF11"/>
-      <c r="AG11"/>
-      <c r="AH11"/>
-      <c r="AI11"/>
-      <c r="AJ11"/>
-      <c r="AK11"/>
-      <c r="AL11"/>
-      <c r="AM11"/>
-      <c r="AN11"/>
-      <c r="AO11"/>
-      <c r="AP11"/>
-      <c r="AQ11"/>
-      <c r="AR11"/>
-      <c r="AS11"/>
-      <c r="AT11"/>
-      <c r="AU11"/>
-      <c r="AV11"/>
-      <c r="AW11"/>
-      <c r="AX11"/>
-      <c r="AY11"/>
-      <c r="AZ11"/>
-      <c r="BA11"/>
-      <c r="BB11"/>
-      <c r="BC11"/>
-      <c r="BD11"/>
-      <c r="BE11"/>
-      <c r="BF11"/>
-      <c r="BG11"/>
-      <c r="BH11"/>
-      <c r="BI11"/>
-      <c r="BJ11"/>
-      <c r="BK11"/>
-      <c r="BL11"/>
-      <c r="BM11"/>
-      <c r="BN11"/>
-      <c r="BO11"/>
-      <c r="BP11"/>
-      <c r="BQ11"/>
-      <c r="BR11"/>
-      <c r="BS11"/>
-      <c r="BT11"/>
-      <c r="BU11"/>
-      <c r="BV11"/>
-      <c r="BW11"/>
-      <c r="BX11"/>
-      <c r="BY11"/>
-      <c r="BZ11"/>
-      <c r="CA11"/>
-      <c r="CB11"/>
-      <c r="CC11"/>
-      <c r="CD11"/>
-      <c r="CE11"/>
-      <c r="CF11"/>
-      <c r="CG11"/>
-      <c r="CH11"/>
-      <c r="CI11"/>
-      <c r="CJ11"/>
-      <c r="CK11"/>
-      <c r="CL11"/>
-      <c r="CM11"/>
-      <c r="CN11"/>
-      <c r="CO11"/>
-      <c r="CP11"/>
-      <c r="CQ11"/>
-      <c r="CR11"/>
-      <c r="CS11"/>
-      <c r="CT11"/>
-      <c r="CU11"/>
-      <c r="CV11"/>
-      <c r="CW11"/>
-      <c r="CX11"/>
-      <c r="CY11"/>
-      <c r="CZ11"/>
-      <c r="DA11"/>
-      <c r="DB11"/>
-      <c r="DC11"/>
-      <c r="DD11"/>
-      <c r="DE11"/>
-      <c r="DF11"/>
-      <c r="DG11"/>
-      <c r="DH11"/>
-      <c r="DI11"/>
-      <c r="DJ11"/>
-      <c r="DK11"/>
-      <c r="DL11"/>
-      <c r="DM11"/>
-      <c r="DN11"/>
-      <c r="DO11"/>
-      <c r="DP11"/>
-      <c r="DQ11"/>
-      <c r="DR11"/>
-      <c r="DS11"/>
-      <c r="DT11"/>
-      <c r="DU11"/>
-      <c r="DV11"/>
-      <c r="DW11"/>
-      <c r="DX11"/>
-      <c r="DY11"/>
-      <c r="DZ11"/>
-      <c r="EA11"/>
-      <c r="EB11"/>
-      <c r="EC11"/>
-      <c r="ED11"/>
-      <c r="EE11"/>
-      <c r="EF11"/>
-      <c r="EG11"/>
-      <c r="EH11"/>
-      <c r="EI11"/>
-      <c r="EJ11"/>
-      <c r="EK11"/>
-      <c r="EL11"/>
-      <c r="EM11"/>
-      <c r="EN11"/>
-      <c r="EO11"/>
-      <c r="EP11"/>
-      <c r="EQ11"/>
-      <c r="ER11"/>
-      <c r="ES11"/>
-      <c r="ET11"/>
-      <c r="EU11"/>
-      <c r="EV11"/>
-      <c r="EW11"/>
-      <c r="EX11"/>
-      <c r="EY11"/>
-      <c r="EZ11"/>
-      <c r="FA11"/>
-      <c r="FB11"/>
-      <c r="FC11"/>
-      <c r="FD11"/>
-      <c r="FE11"/>
-      <c r="FF11"/>
-      <c r="FG11"/>
-      <c r="FH11"/>
-      <c r="FI11"/>
-      <c r="FJ11"/>
-      <c r="FK11"/>
-      <c r="FL11"/>
-      <c r="FM11"/>
-      <c r="FN11"/>
-      <c r="FO11"/>
-      <c r="FP11"/>
-      <c r="FQ11"/>
-      <c r="FR11"/>
-      <c r="FS11"/>
-      <c r="FT11"/>
-      <c r="FU11"/>
-      <c r="FV11"/>
-      <c r="FW11"/>
-      <c r="FX11"/>
-      <c r="FY11"/>
-      <c r="FZ11"/>
-      <c r="GA11"/>
-      <c r="GB11"/>
-      <c r="GC11"/>
-      <c r="GD11"/>
-      <c r="GE11"/>
-      <c r="GF11"/>
-      <c r="GG11"/>
-      <c r="GH11"/>
-      <c r="GI11"/>
-      <c r="GJ11"/>
-      <c r="GK11"/>
-      <c r="GL11"/>
-      <c r="GM11"/>
-      <c r="GN11"/>
-      <c r="GO11"/>
-      <c r="GP11"/>
-      <c r="GQ11"/>
-      <c r="GR11"/>
-      <c r="GS11"/>
-      <c r="GT11"/>
-      <c r="GU11"/>
-      <c r="GV11"/>
-      <c r="GW11"/>
-      <c r="GX11"/>
-      <c r="GY11"/>
-      <c r="GZ11"/>
-      <c r="HA11"/>
-      <c r="HB11"/>
-      <c r="HC11"/>
-      <c r="HD11"/>
-      <c r="HE11"/>
-      <c r="HF11"/>
-      <c r="HG11"/>
-      <c r="HH11"/>
-      <c r="HI11"/>
-      <c r="HJ11"/>
-      <c r="HK11"/>
-      <c r="HL11"/>
-      <c r="HM11"/>
-      <c r="HN11"/>
-      <c r="HO11"/>
-      <c r="HP11"/>
-      <c r="HQ11"/>
-      <c r="HR11"/>
-      <c r="HS11"/>
-      <c r="HT11"/>
-      <c r="HU11"/>
-      <c r="HV11"/>
-      <c r="HW11"/>
-      <c r="HX11"/>
-      <c r="HY11"/>
-      <c r="HZ11"/>
-      <c r="IA11"/>
-      <c r="IB11"/>
-      <c r="IC11"/>
-      <c r="ID11"/>
-      <c r="IE11"/>
-      <c r="IF11"/>
-      <c r="IG11"/>
-      <c r="IH11"/>
-      <c r="II11"/>
-      <c r="IJ11"/>
-      <c r="IK11"/>
-      <c r="IL11"/>
-      <c r="IM11"/>
-      <c r="IN11"/>
-      <c r="IO11"/>
-      <c r="IP11"/>
-      <c r="IQ11"/>
-      <c r="IR11"/>
-      <c r="IS11"/>
-      <c r="IT11"/>
-      <c r="IU11"/>
-      <c r="IV11"/>
-      <c r="IW11"/>
-      <c r="IX11"/>
     </row>
-    <row r="12" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+    <row r="12" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3">
+        <v>45959</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45966</v>
+      </c>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12"/>
+      <c r="AN12"/>
+      <c r="AO12"/>
+      <c r="AP12"/>
+      <c r="AQ12"/>
+      <c r="AR12"/>
+      <c r="AS12"/>
+      <c r="AT12"/>
+      <c r="AU12"/>
+      <c r="AV12"/>
+      <c r="AW12"/>
+      <c r="AX12"/>
+      <c r="AY12"/>
+      <c r="AZ12"/>
+      <c r="BA12"/>
+      <c r="BB12"/>
+      <c r="BC12"/>
+      <c r="BD12"/>
+      <c r="BE12"/>
+      <c r="BF12"/>
+      <c r="BG12"/>
+      <c r="BH12"/>
+      <c r="BI12"/>
+      <c r="BJ12"/>
+      <c r="BK12"/>
+      <c r="BL12"/>
+      <c r="BM12"/>
+      <c r="BN12"/>
+      <c r="BO12"/>
+      <c r="BP12"/>
+      <c r="BQ12"/>
+      <c r="BR12"/>
+      <c r="BS12"/>
+      <c r="BT12"/>
+      <c r="BU12"/>
+      <c r="BV12"/>
+      <c r="BW12"/>
+      <c r="BX12"/>
+      <c r="BY12"/>
+      <c r="BZ12"/>
+      <c r="CA12"/>
+      <c r="CB12"/>
+      <c r="CC12"/>
+      <c r="CD12"/>
+      <c r="CE12"/>
+      <c r="CF12"/>
+      <c r="CG12"/>
+      <c r="CH12"/>
+      <c r="CI12"/>
+      <c r="CJ12"/>
+      <c r="CK12"/>
+      <c r="CL12"/>
+      <c r="CM12"/>
+      <c r="CN12"/>
+      <c r="CO12"/>
+      <c r="CP12"/>
+      <c r="CQ12"/>
+      <c r="CR12"/>
+      <c r="CS12"/>
+      <c r="CT12"/>
+      <c r="CU12"/>
+      <c r="CV12"/>
+      <c r="CW12"/>
+      <c r="CX12"/>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+      <c r="DP12"/>
+      <c r="DQ12"/>
+      <c r="DR12"/>
+      <c r="DS12"/>
+      <c r="DT12"/>
+      <c r="DU12"/>
+      <c r="DV12"/>
+      <c r="DW12"/>
+      <c r="DX12"/>
+      <c r="DY12"/>
+      <c r="DZ12"/>
+      <c r="EA12"/>
+      <c r="EB12"/>
+      <c r="EC12"/>
+      <c r="ED12"/>
+      <c r="EE12"/>
+      <c r="EF12"/>
+      <c r="EG12"/>
+      <c r="EH12"/>
+      <c r="EI12"/>
+      <c r="EJ12"/>
+      <c r="EK12"/>
+      <c r="EL12"/>
+      <c r="EM12"/>
+      <c r="EN12"/>
+      <c r="EO12"/>
+      <c r="EP12"/>
+      <c r="EQ12"/>
+      <c r="ER12"/>
+      <c r="ES12"/>
+      <c r="ET12"/>
+      <c r="EU12"/>
+      <c r="EV12"/>
+      <c r="EW12"/>
+      <c r="EX12"/>
+      <c r="EY12"/>
+      <c r="EZ12"/>
+      <c r="FA12"/>
+      <c r="FB12"/>
+      <c r="FC12"/>
+      <c r="FD12"/>
+      <c r="FE12"/>
+      <c r="FF12"/>
+      <c r="FG12"/>
+      <c r="FH12"/>
+      <c r="FI12"/>
+      <c r="FJ12"/>
+      <c r="FK12"/>
+      <c r="FL12"/>
+      <c r="FM12"/>
+      <c r="FN12"/>
+      <c r="FO12"/>
+      <c r="FP12"/>
+      <c r="FQ12"/>
+      <c r="FR12"/>
+      <c r="FS12"/>
+      <c r="FT12"/>
+      <c r="FU12"/>
+      <c r="FV12"/>
+      <c r="FW12"/>
+      <c r="FX12"/>
+      <c r="FY12"/>
+      <c r="FZ12"/>
+      <c r="GA12"/>
+      <c r="GB12"/>
+      <c r="GC12"/>
+      <c r="GD12"/>
+      <c r="GE12"/>
+      <c r="GF12"/>
+      <c r="GG12"/>
+      <c r="GH12"/>
+      <c r="GI12"/>
+      <c r="GJ12"/>
+      <c r="GK12"/>
+      <c r="GL12"/>
+      <c r="GM12"/>
+      <c r="GN12"/>
+      <c r="GO12"/>
+      <c r="GP12"/>
+      <c r="GQ12"/>
+      <c r="GR12"/>
+      <c r="GS12"/>
+      <c r="GT12"/>
+      <c r="GU12"/>
+      <c r="GV12"/>
+      <c r="GW12"/>
+      <c r="GX12"/>
+      <c r="GY12"/>
+      <c r="GZ12"/>
+      <c r="HA12"/>
+      <c r="HB12"/>
+      <c r="HC12"/>
+      <c r="HD12"/>
+      <c r="HE12"/>
+      <c r="HF12"/>
+      <c r="HG12"/>
+      <c r="HH12"/>
+      <c r="HI12"/>
+      <c r="HJ12"/>
+      <c r="HK12"/>
+      <c r="HL12"/>
+      <c r="HM12"/>
+      <c r="HN12"/>
+      <c r="HO12"/>
+      <c r="HP12"/>
+      <c r="HQ12"/>
+      <c r="HR12"/>
+      <c r="HS12"/>
+      <c r="HT12"/>
+      <c r="HU12"/>
+      <c r="HV12"/>
+      <c r="HW12"/>
+      <c r="HX12"/>
+      <c r="HY12"/>
+      <c r="HZ12"/>
+      <c r="IA12"/>
+      <c r="IB12"/>
+      <c r="IC12"/>
+      <c r="ID12"/>
+      <c r="IE12"/>
+      <c r="IF12"/>
+      <c r="IG12"/>
+      <c r="IH12"/>
+      <c r="II12"/>
+      <c r="IJ12"/>
+      <c r="IK12"/>
+      <c r="IL12"/>
+      <c r="IM12"/>
+      <c r="IN12"/>
+      <c r="IO12"/>
+      <c r="IP12"/>
+      <c r="IQ12"/>
+      <c r="IR12"/>
+      <c r="IS12"/>
+      <c r="IT12"/>
+      <c r="IU12"/>
+      <c r="IV12"/>
+      <c r="IW12"/>
+      <c r="IX12"/>
+    </row>
+    <row r="13" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="3">
         <v>45952</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D13" s="3">
         <v>45973</v>
       </c>
     </row>
-    <row r="13" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+    <row r="14" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="3">
-        <v>45973</v>
-      </c>
-      <c r="D13" s="3">
-        <v>45987</v>
-      </c>
-    </row>
-    <row r="14" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="15"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="3">
         <v>45973</v>
       </c>
       <c r="D14" s="3">
-        <v>46015</v>
+        <v>45987</v>
       </c>
     </row>
-    <row r="15" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11"/>
+    <row r="15" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15"/>
       <c r="C15" s="3">
         <v>45973</v>
       </c>
       <c r="D15" s="3">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="3">
+        <v>45973</v>
+      </c>
+      <c r="D16" s="3">
         <v>45987</v>
       </c>
     </row>
-    <row r="16" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="17" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="3">
-        <v>45987</v>
-      </c>
-      <c r="D16" s="3">
-        <v>46015</v>
-      </c>
-    </row>
-    <row r="17" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="21"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="3">
         <v>45987</v>
       </c>
       <c r="D17" s="3">
+        <v>46008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="11"/>
+      <c r="C18" s="3">
+        <v>45987</v>
+      </c>
+      <c r="D18" s="3">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="16"/>
+      <c r="C19" s="3">
+        <v>45987</v>
+      </c>
+      <c r="D19" s="3">
         <v>45994</v>
       </c>
     </row>
-    <row r="18" spans="1:258" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+    <row r="20" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="3">
+        <v>45994</v>
+      </c>
+      <c r="D20" s="3">
+        <v>46015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="3">
+      <c r="B21" s="11"/>
+      <c r="C21" s="3">
         <v>45994</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D21" s="3">
         <v>46106</v>
       </c>
     </row>
-    <row r="19" spans="1:258" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+    <row r="22" spans="1:258" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="3">
+      <c r="B22" s="12"/>
+      <c r="C22" s="3">
         <v>45994</v>
       </c>
-      <c r="D19" s="3">
-        <v>46001</v>
+      <c r="D22" s="3">
+        <v>46008</v>
       </c>
     </row>
-    <row r="20" spans="1:258" ht="15.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="23" spans="1:258" ht="15.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="3">
+      <c r="B23" s="12"/>
+      <c r="C23" s="3">
+        <v>46008</v>
+      </c>
+      <c r="D23" s="3">
         <v>46015</v>
       </c>
-      <c r="D20" s="3">
-        <v>46029</v>
-      </c>
-    </row>
-    <row r="21" spans="1:258" collapsed="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="3">
-        <v>45917</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="N24"/>
-      <c r="O24"/>
-      <c r="P24"/>
-      <c r="Q24"/>
-      <c r="R24"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-      <c r="Y24"/>
-      <c r="Z24"/>
-      <c r="AA24"/>
-      <c r="AB24"/>
-      <c r="AC24"/>
-      <c r="AD24"/>
-      <c r="AE24"/>
-      <c r="AF24"/>
-      <c r="AG24"/>
-      <c r="AH24"/>
-      <c r="AI24"/>
-      <c r="AJ24"/>
-      <c r="AK24"/>
-      <c r="AL24"/>
-      <c r="AM24"/>
-      <c r="AN24"/>
-      <c r="AO24"/>
-      <c r="AP24"/>
-      <c r="AQ24"/>
-      <c r="AR24"/>
-      <c r="AS24"/>
-      <c r="AT24"/>
-      <c r="AU24"/>
-      <c r="AV24"/>
-      <c r="AW24"/>
-      <c r="AX24"/>
-      <c r="AY24"/>
-      <c r="AZ24"/>
-      <c r="BA24"/>
-      <c r="BB24"/>
-      <c r="BC24"/>
-      <c r="BD24"/>
-      <c r="BE24"/>
-      <c r="BF24"/>
-      <c r="BG24"/>
-      <c r="BH24"/>
-      <c r="BI24"/>
-      <c r="BJ24"/>
-      <c r="BK24"/>
-      <c r="BL24"/>
-      <c r="BM24"/>
-      <c r="BN24"/>
-      <c r="BO24"/>
-      <c r="BP24"/>
-      <c r="BQ24"/>
-      <c r="BR24"/>
-      <c r="BS24"/>
-      <c r="BT24"/>
-      <c r="BU24"/>
-      <c r="BV24"/>
-      <c r="BW24"/>
-      <c r="BX24"/>
-      <c r="BY24"/>
-      <c r="BZ24"/>
-      <c r="CA24"/>
-      <c r="CB24"/>
-      <c r="CC24"/>
-      <c r="CD24"/>
-      <c r="CE24"/>
-      <c r="CF24"/>
-      <c r="CG24"/>
-      <c r="CH24"/>
-      <c r="CI24"/>
-      <c r="CJ24"/>
-      <c r="CK24"/>
-      <c r="CL24"/>
-      <c r="CM24"/>
-      <c r="CN24"/>
-      <c r="CO24"/>
-      <c r="CP24"/>
-      <c r="CQ24"/>
-      <c r="CR24"/>
-      <c r="CS24"/>
-      <c r="CT24"/>
-      <c r="CU24"/>
-      <c r="CV24"/>
-      <c r="CW24"/>
-      <c r="CX24"/>
-      <c r="CY24"/>
-      <c r="CZ24"/>
-      <c r="DA24"/>
-      <c r="DB24"/>
-      <c r="DC24"/>
-      <c r="DD24"/>
-      <c r="DE24"/>
-      <c r="DF24"/>
-      <c r="DG24"/>
-      <c r="DH24"/>
-      <c r="DI24"/>
-      <c r="DJ24"/>
-      <c r="DK24"/>
-      <c r="DL24"/>
-      <c r="DM24"/>
-      <c r="DN24"/>
-      <c r="DO24"/>
-      <c r="DP24"/>
-      <c r="DQ24"/>
-      <c r="DR24"/>
-      <c r="DS24"/>
-      <c r="DT24"/>
-      <c r="DU24"/>
-      <c r="DV24"/>
-      <c r="DW24"/>
-      <c r="DX24"/>
-      <c r="DY24"/>
-      <c r="DZ24"/>
-      <c r="EA24"/>
-      <c r="EB24"/>
-      <c r="EC24"/>
-      <c r="ED24"/>
-      <c r="EE24"/>
-      <c r="EF24"/>
-      <c r="EG24"/>
-      <c r="EH24"/>
-      <c r="EI24"/>
-      <c r="EJ24"/>
-      <c r="EK24"/>
-      <c r="EL24"/>
-      <c r="EM24"/>
-      <c r="EN24"/>
-      <c r="EO24"/>
-      <c r="EP24"/>
-      <c r="EQ24"/>
-      <c r="ER24"/>
-      <c r="ES24"/>
-      <c r="ET24"/>
-      <c r="EU24"/>
-      <c r="EV24"/>
-      <c r="EW24"/>
-      <c r="EX24"/>
-      <c r="EY24"/>
-      <c r="EZ24"/>
-      <c r="FA24"/>
-      <c r="FB24"/>
-      <c r="FC24"/>
-      <c r="FD24"/>
-      <c r="FE24"/>
-      <c r="FF24"/>
-      <c r="FG24"/>
-      <c r="FH24"/>
-      <c r="FI24"/>
-      <c r="FJ24"/>
-      <c r="FK24"/>
-      <c r="FL24"/>
-      <c r="FM24"/>
-      <c r="FN24"/>
-      <c r="FO24"/>
-      <c r="FP24"/>
-      <c r="FQ24"/>
-      <c r="FR24"/>
-      <c r="FS24"/>
-      <c r="FT24"/>
-      <c r="FU24"/>
-      <c r="FV24"/>
-      <c r="FW24"/>
-      <c r="FX24"/>
-      <c r="FY24"/>
-      <c r="FZ24"/>
-      <c r="GA24"/>
-      <c r="GB24"/>
-      <c r="GC24"/>
-      <c r="GD24"/>
-      <c r="GE24"/>
-      <c r="GF24"/>
-      <c r="GG24"/>
-      <c r="GH24"/>
-      <c r="GI24"/>
-      <c r="GJ24"/>
-      <c r="GK24"/>
-      <c r="GL24"/>
-      <c r="GM24"/>
-      <c r="GN24"/>
-      <c r="GO24"/>
-      <c r="GP24"/>
-      <c r="GQ24"/>
-      <c r="GR24"/>
-      <c r="GS24"/>
-      <c r="GT24"/>
-      <c r="GU24"/>
-      <c r="GV24"/>
-      <c r="GW24"/>
-      <c r="GX24"/>
-      <c r="GY24"/>
-      <c r="GZ24"/>
-      <c r="HA24"/>
-      <c r="HB24"/>
-      <c r="HC24"/>
-      <c r="HD24"/>
-      <c r="HE24"/>
-      <c r="HF24"/>
-      <c r="HG24"/>
-      <c r="HH24"/>
-      <c r="HI24"/>
-      <c r="HJ24"/>
-      <c r="HK24"/>
-      <c r="HL24"/>
-      <c r="HM24"/>
-      <c r="HN24"/>
-      <c r="HO24"/>
-      <c r="HP24"/>
-      <c r="HQ24"/>
-      <c r="HR24"/>
-      <c r="HS24"/>
-      <c r="HT24"/>
-      <c r="HU24"/>
-      <c r="HV24"/>
-      <c r="HW24"/>
-      <c r="HX24"/>
-      <c r="HY24"/>
-      <c r="HZ24"/>
-      <c r="IA24"/>
-      <c r="IB24"/>
-      <c r="IC24"/>
-      <c r="ID24"/>
-      <c r="IE24"/>
-      <c r="IF24"/>
-      <c r="IG24"/>
-      <c r="IH24"/>
-      <c r="II24"/>
-      <c r="IJ24"/>
-      <c r="IK24"/>
-      <c r="IL24"/>
-      <c r="IM24"/>
-      <c r="IN24"/>
-      <c r="IO24"/>
-      <c r="IP24"/>
-      <c r="IQ24"/>
-      <c r="IR24"/>
-      <c r="IS24"/>
-      <c r="IT24"/>
-      <c r="IU24"/>
-      <c r="IV24"/>
-      <c r="IW24"/>
-      <c r="IX24"/>
-    </row>
-    <row r="25" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B25" s="3">
-        <v>46170</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="N25"/>
-      <c r="O25"/>
-      <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25"/>
-      <c r="S25"/>
-      <c r="T25"/>
-      <c r="U25"/>
-      <c r="V25"/>
-      <c r="W25"/>
-      <c r="X25"/>
-      <c r="Y25"/>
-      <c r="Z25"/>
-      <c r="AA25"/>
-      <c r="AB25"/>
-      <c r="AC25"/>
-      <c r="AD25"/>
-      <c r="AE25"/>
-      <c r="AF25"/>
-      <c r="AG25"/>
-      <c r="AH25"/>
-      <c r="AI25"/>
-      <c r="AJ25"/>
-      <c r="AK25"/>
-      <c r="AL25"/>
-      <c r="AM25"/>
-      <c r="AN25"/>
-      <c r="AO25"/>
-      <c r="AP25"/>
-      <c r="AQ25"/>
-      <c r="AR25"/>
-      <c r="AS25"/>
-      <c r="AT25"/>
-      <c r="AU25"/>
-      <c r="AV25"/>
-      <c r="AW25"/>
-      <c r="AX25"/>
-      <c r="AY25"/>
-      <c r="AZ25"/>
-      <c r="BA25"/>
-      <c r="BB25"/>
-      <c r="BC25"/>
-      <c r="BD25"/>
-      <c r="BE25"/>
-      <c r="BF25"/>
-      <c r="BG25"/>
-      <c r="BH25"/>
-      <c r="BI25"/>
-      <c r="BJ25"/>
-      <c r="BK25"/>
-      <c r="BL25"/>
-      <c r="BM25"/>
-      <c r="BN25"/>
-      <c r="BO25"/>
-      <c r="BP25"/>
-      <c r="BQ25"/>
-      <c r="BR25"/>
-      <c r="BS25"/>
-      <c r="BT25"/>
-      <c r="BU25"/>
-      <c r="BV25"/>
-      <c r="BW25"/>
-      <c r="BX25"/>
-      <c r="BY25"/>
-      <c r="BZ25"/>
-      <c r="CA25"/>
-      <c r="CB25"/>
-      <c r="CC25"/>
-      <c r="CD25"/>
-      <c r="CE25"/>
-      <c r="CF25"/>
-      <c r="CG25"/>
-      <c r="CH25"/>
-      <c r="CI25"/>
-      <c r="CJ25"/>
-      <c r="CK25"/>
-      <c r="CL25"/>
-      <c r="CM25"/>
-      <c r="CN25"/>
-      <c r="CO25"/>
-      <c r="CP25"/>
-      <c r="CQ25"/>
-      <c r="CR25"/>
-      <c r="CS25"/>
-      <c r="CT25"/>
-      <c r="CU25"/>
-      <c r="CV25"/>
-      <c r="CW25"/>
-      <c r="CX25"/>
-      <c r="CY25"/>
-      <c r="CZ25"/>
-      <c r="DA25"/>
-      <c r="DB25"/>
-      <c r="DC25"/>
-      <c r="DD25"/>
-      <c r="DE25"/>
-      <c r="DF25"/>
-      <c r="DG25"/>
-      <c r="DH25"/>
-      <c r="DI25"/>
-      <c r="DJ25"/>
-      <c r="DK25"/>
-      <c r="DL25"/>
-      <c r="DM25"/>
-      <c r="DN25"/>
-      <c r="DO25"/>
-      <c r="DP25"/>
-      <c r="DQ25"/>
-      <c r="DR25"/>
-      <c r="DS25"/>
-      <c r="DT25"/>
-      <c r="DU25"/>
-      <c r="DV25"/>
-      <c r="DW25"/>
-      <c r="DX25"/>
-      <c r="DY25"/>
-      <c r="DZ25"/>
-      <c r="EA25"/>
-      <c r="EB25"/>
-      <c r="EC25"/>
-      <c r="ED25"/>
-      <c r="EE25"/>
-      <c r="EF25"/>
-      <c r="EG25"/>
-      <c r="EH25"/>
-      <c r="EI25"/>
-      <c r="EJ25"/>
-      <c r="EK25"/>
-      <c r="EL25"/>
-      <c r="EM25"/>
-      <c r="EN25"/>
-      <c r="EO25"/>
-      <c r="EP25"/>
-      <c r="EQ25"/>
-      <c r="ER25"/>
-      <c r="ES25"/>
-      <c r="ET25"/>
-      <c r="EU25"/>
-      <c r="EV25"/>
-      <c r="EW25"/>
-      <c r="EX25"/>
-      <c r="EY25"/>
-      <c r="EZ25"/>
-      <c r="FA25"/>
-      <c r="FB25"/>
-      <c r="FC25"/>
-      <c r="FD25"/>
-      <c r="FE25"/>
-      <c r="FF25"/>
-      <c r="FG25"/>
-      <c r="FH25"/>
-      <c r="FI25"/>
-      <c r="FJ25"/>
-      <c r="FK25"/>
-      <c r="FL25"/>
-      <c r="FM25"/>
-      <c r="FN25"/>
-      <c r="FO25"/>
-      <c r="FP25"/>
-      <c r="FQ25"/>
-      <c r="FR25"/>
-      <c r="FS25"/>
-      <c r="FT25"/>
-      <c r="FU25"/>
-      <c r="FV25"/>
-      <c r="FW25"/>
-      <c r="FX25"/>
-      <c r="FY25"/>
-      <c r="FZ25"/>
-      <c r="GA25"/>
-      <c r="GB25"/>
-      <c r="GC25"/>
-      <c r="GD25"/>
-      <c r="GE25"/>
-      <c r="GF25"/>
-      <c r="GG25"/>
-      <c r="GH25"/>
-      <c r="GI25"/>
-      <c r="GJ25"/>
-      <c r="GK25"/>
-      <c r="GL25"/>
-      <c r="GM25"/>
-      <c r="GN25"/>
-      <c r="GO25"/>
-      <c r="GP25"/>
-      <c r="GQ25"/>
-      <c r="GR25"/>
-      <c r="GS25"/>
-      <c r="GT25"/>
-      <c r="GU25"/>
-      <c r="GV25"/>
-      <c r="GW25"/>
-      <c r="GX25"/>
-      <c r="GY25"/>
-      <c r="GZ25"/>
-      <c r="HA25"/>
-      <c r="HB25"/>
-      <c r="HC25"/>
-      <c r="HD25"/>
-      <c r="HE25"/>
-      <c r="HF25"/>
-      <c r="HG25"/>
-      <c r="HH25"/>
-      <c r="HI25"/>
-      <c r="HJ25"/>
-      <c r="HK25"/>
-      <c r="HL25"/>
-      <c r="HM25"/>
-      <c r="HN25"/>
-      <c r="HO25"/>
-      <c r="HP25"/>
-      <c r="HQ25"/>
-      <c r="HR25"/>
-      <c r="HS25"/>
-      <c r="HT25"/>
-      <c r="HU25"/>
-      <c r="HV25"/>
-      <c r="HW25"/>
-      <c r="HX25"/>
-      <c r="HY25"/>
-      <c r="HZ25"/>
-      <c r="IA25"/>
-      <c r="IB25"/>
-      <c r="IC25"/>
-      <c r="ID25"/>
-      <c r="IE25"/>
-      <c r="IF25"/>
-      <c r="IG25"/>
-      <c r="IH25"/>
-      <c r="II25"/>
-      <c r="IJ25"/>
-      <c r="IK25"/>
-      <c r="IL25"/>
-      <c r="IM25"/>
-      <c r="IN25"/>
-      <c r="IO25"/>
-      <c r="IP25"/>
-      <c r="IQ25"/>
-      <c r="IR25"/>
-      <c r="IS25"/>
-      <c r="IT25"/>
-      <c r="IU25"/>
-      <c r="IV25"/>
-      <c r="IW25"/>
-      <c r="IX25"/>
-    </row>
-    <row r="26" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" s="4">
-        <f ca="1">TODAY()-B24</f>
-        <v>62</v>
-      </c>
-      <c r="N26"/>
-      <c r="O26"/>
-      <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-      <c r="Y26"/>
-      <c r="Z26"/>
-      <c r="AA26"/>
-      <c r="AB26"/>
-      <c r="AC26"/>
-      <c r="AD26"/>
-      <c r="AE26"/>
-      <c r="AF26"/>
-      <c r="AG26"/>
-      <c r="AH26"/>
-      <c r="AI26"/>
-      <c r="AJ26"/>
-      <c r="AK26"/>
-      <c r="AL26"/>
-      <c r="AM26"/>
-      <c r="AN26"/>
-      <c r="AO26"/>
-      <c r="AP26"/>
-      <c r="AQ26"/>
-      <c r="AR26"/>
-      <c r="AS26"/>
-      <c r="AT26"/>
-      <c r="AU26"/>
-      <c r="AV26"/>
-      <c r="AW26"/>
-      <c r="AX26"/>
-      <c r="AY26"/>
-      <c r="AZ26"/>
-      <c r="BA26"/>
-      <c r="BB26"/>
-      <c r="BC26"/>
-      <c r="BD26"/>
-      <c r="BE26"/>
-      <c r="BF26"/>
-      <c r="BG26"/>
-      <c r="BH26"/>
-      <c r="BI26"/>
-      <c r="BJ26"/>
-      <c r="BK26"/>
-      <c r="BL26"/>
-      <c r="BM26"/>
-      <c r="BN26"/>
-      <c r="BO26"/>
-      <c r="BP26"/>
-      <c r="BQ26"/>
-      <c r="BR26"/>
-      <c r="BS26"/>
-      <c r="BT26"/>
-      <c r="BU26"/>
-      <c r="BV26"/>
-      <c r="BW26"/>
-      <c r="BX26"/>
-      <c r="BY26"/>
-      <c r="BZ26"/>
-      <c r="CA26"/>
-      <c r="CB26"/>
-      <c r="CC26"/>
-      <c r="CD26"/>
-      <c r="CE26"/>
-      <c r="CF26"/>
-      <c r="CG26"/>
-      <c r="CH26"/>
-      <c r="CI26"/>
-      <c r="CJ26"/>
-      <c r="CK26"/>
-      <c r="CL26"/>
-      <c r="CM26"/>
-      <c r="CN26"/>
-      <c r="CO26"/>
-      <c r="CP26"/>
-      <c r="CQ26"/>
-      <c r="CR26"/>
-      <c r="CS26"/>
-      <c r="CT26"/>
-      <c r="CU26"/>
-      <c r="CV26"/>
-      <c r="CW26"/>
-      <c r="CX26"/>
-      <c r="CY26"/>
-      <c r="CZ26"/>
-      <c r="DA26"/>
-      <c r="DB26"/>
-      <c r="DC26"/>
-      <c r="DD26"/>
-      <c r="DE26"/>
-      <c r="DF26"/>
-      <c r="DG26"/>
-      <c r="DH26"/>
-      <c r="DI26"/>
-      <c r="DJ26"/>
-      <c r="DK26"/>
-      <c r="DL26"/>
-      <c r="DM26"/>
-      <c r="DN26"/>
-      <c r="DO26"/>
-      <c r="DP26"/>
-      <c r="DQ26"/>
-      <c r="DR26"/>
-      <c r="DS26"/>
-      <c r="DT26"/>
-      <c r="DU26"/>
-      <c r="DV26"/>
-      <c r="DW26"/>
-      <c r="DX26"/>
-      <c r="DY26"/>
-      <c r="DZ26"/>
-      <c r="EA26"/>
-      <c r="EB26"/>
-      <c r="EC26"/>
-      <c r="ED26"/>
-      <c r="EE26"/>
-      <c r="EF26"/>
-      <c r="EG26"/>
-      <c r="EH26"/>
-      <c r="EI26"/>
-      <c r="EJ26"/>
-      <c r="EK26"/>
-      <c r="EL26"/>
-      <c r="EM26"/>
-      <c r="EN26"/>
-      <c r="EO26"/>
-      <c r="EP26"/>
-      <c r="EQ26"/>
-      <c r="ER26"/>
-      <c r="ES26"/>
-      <c r="ET26"/>
-      <c r="EU26"/>
-      <c r="EV26"/>
-      <c r="EW26"/>
-      <c r="EX26"/>
-      <c r="EY26"/>
-      <c r="EZ26"/>
-      <c r="FA26"/>
-      <c r="FB26"/>
-      <c r="FC26"/>
-      <c r="FD26"/>
-      <c r="FE26"/>
-      <c r="FF26"/>
-      <c r="FG26"/>
-      <c r="FH26"/>
-      <c r="FI26"/>
-      <c r="FJ26"/>
-      <c r="FK26"/>
-      <c r="FL26"/>
-      <c r="FM26"/>
-      <c r="FN26"/>
-      <c r="FO26"/>
-      <c r="FP26"/>
-      <c r="FQ26"/>
-      <c r="FR26"/>
-      <c r="FS26"/>
-      <c r="FT26"/>
-      <c r="FU26"/>
-      <c r="FV26"/>
-      <c r="FW26"/>
-      <c r="FX26"/>
-      <c r="FY26"/>
-      <c r="FZ26"/>
-      <c r="GA26"/>
-      <c r="GB26"/>
-      <c r="GC26"/>
-      <c r="GD26"/>
-      <c r="GE26"/>
-      <c r="GF26"/>
-      <c r="GG26"/>
-      <c r="GH26"/>
-      <c r="GI26"/>
-      <c r="GJ26"/>
-      <c r="GK26"/>
-      <c r="GL26"/>
-      <c r="GM26"/>
-      <c r="GN26"/>
-      <c r="GO26"/>
-      <c r="GP26"/>
-      <c r="GQ26"/>
-      <c r="GR26"/>
-      <c r="GS26"/>
-      <c r="GT26"/>
-      <c r="GU26"/>
-      <c r="GV26"/>
-      <c r="GW26"/>
-      <c r="GX26"/>
-      <c r="GY26"/>
-      <c r="GZ26"/>
-      <c r="HA26"/>
-      <c r="HB26"/>
-      <c r="HC26"/>
-      <c r="HD26"/>
-      <c r="HE26"/>
-      <c r="HF26"/>
-      <c r="HG26"/>
-      <c r="HH26"/>
-      <c r="HI26"/>
-      <c r="HJ26"/>
-      <c r="HK26"/>
-      <c r="HL26"/>
-      <c r="HM26"/>
-      <c r="HN26"/>
-      <c r="HO26"/>
-      <c r="HP26"/>
-      <c r="HQ26"/>
-      <c r="HR26"/>
-      <c r="HS26"/>
-      <c r="HT26"/>
-      <c r="HU26"/>
-      <c r="HV26"/>
-      <c r="HW26"/>
-      <c r="HX26"/>
-      <c r="HY26"/>
-      <c r="HZ26"/>
-      <c r="IA26"/>
-      <c r="IB26"/>
-      <c r="IC26"/>
-      <c r="ID26"/>
-      <c r="IE26"/>
-      <c r="IF26"/>
-      <c r="IG26"/>
-      <c r="IH26"/>
-      <c r="II26"/>
-      <c r="IJ26"/>
-      <c r="IK26"/>
-      <c r="IL26"/>
-      <c r="IM26"/>
-      <c r="IN26"/>
-      <c r="IO26"/>
-      <c r="IP26"/>
-      <c r="IQ26"/>
-      <c r="IR26"/>
-      <c r="IS26"/>
-      <c r="IT26"/>
-      <c r="IU26"/>
-      <c r="IV26"/>
-      <c r="IW26"/>
-      <c r="IX26"/>
     </row>
     <row r="27" spans="1:258" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="4">
-        <f ca="1">B25-TODAY()</f>
-        <v>191</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45917</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="N27"/>
@@ -4047,8 +3238,14 @@
       <c r="IX27"/>
     </row>
     <row r="28" spans="1:258" x14ac:dyDescent="0.25">
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="3">
+        <v>46170</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
       <c r="N28"/>
@@ -4297,35 +3494,801 @@
       <c r="IW28"/>
       <c r="IX28"/>
     </row>
+    <row r="29" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="4">
+        <f ca="1">TODAY()-B27</f>
+        <v>96</v>
+      </c>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+      <c r="AL29"/>
+      <c r="AM29"/>
+      <c r="AN29"/>
+      <c r="AO29"/>
+      <c r="AP29"/>
+      <c r="AQ29"/>
+      <c r="AR29"/>
+      <c r="AS29"/>
+      <c r="AT29"/>
+      <c r="AU29"/>
+      <c r="AV29"/>
+      <c r="AW29"/>
+      <c r="AX29"/>
+      <c r="AY29"/>
+      <c r="AZ29"/>
+      <c r="BA29"/>
+      <c r="BB29"/>
+      <c r="BC29"/>
+      <c r="BD29"/>
+      <c r="BE29"/>
+      <c r="BF29"/>
+      <c r="BG29"/>
+      <c r="BH29"/>
+      <c r="BI29"/>
+      <c r="BJ29"/>
+      <c r="BK29"/>
+      <c r="BL29"/>
+      <c r="BM29"/>
+      <c r="BN29"/>
+      <c r="BO29"/>
+      <c r="BP29"/>
+      <c r="BQ29"/>
+      <c r="BR29"/>
+      <c r="BS29"/>
+      <c r="BT29"/>
+      <c r="BU29"/>
+      <c r="BV29"/>
+      <c r="BW29"/>
+      <c r="BX29"/>
+      <c r="BY29"/>
+      <c r="BZ29"/>
+      <c r="CA29"/>
+      <c r="CB29"/>
+      <c r="CC29"/>
+      <c r="CD29"/>
+      <c r="CE29"/>
+      <c r="CF29"/>
+      <c r="CG29"/>
+      <c r="CH29"/>
+      <c r="CI29"/>
+      <c r="CJ29"/>
+      <c r="CK29"/>
+      <c r="CL29"/>
+      <c r="CM29"/>
+      <c r="CN29"/>
+      <c r="CO29"/>
+      <c r="CP29"/>
+      <c r="CQ29"/>
+      <c r="CR29"/>
+      <c r="CS29"/>
+      <c r="CT29"/>
+      <c r="CU29"/>
+      <c r="CV29"/>
+      <c r="CW29"/>
+      <c r="CX29"/>
+      <c r="CY29"/>
+      <c r="CZ29"/>
+      <c r="DA29"/>
+      <c r="DB29"/>
+      <c r="DC29"/>
+      <c r="DD29"/>
+      <c r="DE29"/>
+      <c r="DF29"/>
+      <c r="DG29"/>
+      <c r="DH29"/>
+      <c r="DI29"/>
+      <c r="DJ29"/>
+      <c r="DK29"/>
+      <c r="DL29"/>
+      <c r="DM29"/>
+      <c r="DN29"/>
+      <c r="DO29"/>
+      <c r="DP29"/>
+      <c r="DQ29"/>
+      <c r="DR29"/>
+      <c r="DS29"/>
+      <c r="DT29"/>
+      <c r="DU29"/>
+      <c r="DV29"/>
+      <c r="DW29"/>
+      <c r="DX29"/>
+      <c r="DY29"/>
+      <c r="DZ29"/>
+      <c r="EA29"/>
+      <c r="EB29"/>
+      <c r="EC29"/>
+      <c r="ED29"/>
+      <c r="EE29"/>
+      <c r="EF29"/>
+      <c r="EG29"/>
+      <c r="EH29"/>
+      <c r="EI29"/>
+      <c r="EJ29"/>
+      <c r="EK29"/>
+      <c r="EL29"/>
+      <c r="EM29"/>
+      <c r="EN29"/>
+      <c r="EO29"/>
+      <c r="EP29"/>
+      <c r="EQ29"/>
+      <c r="ER29"/>
+      <c r="ES29"/>
+      <c r="ET29"/>
+      <c r="EU29"/>
+      <c r="EV29"/>
+      <c r="EW29"/>
+      <c r="EX29"/>
+      <c r="EY29"/>
+      <c r="EZ29"/>
+      <c r="FA29"/>
+      <c r="FB29"/>
+      <c r="FC29"/>
+      <c r="FD29"/>
+      <c r="FE29"/>
+      <c r="FF29"/>
+      <c r="FG29"/>
+      <c r="FH29"/>
+      <c r="FI29"/>
+      <c r="FJ29"/>
+      <c r="FK29"/>
+      <c r="FL29"/>
+      <c r="FM29"/>
+      <c r="FN29"/>
+      <c r="FO29"/>
+      <c r="FP29"/>
+      <c r="FQ29"/>
+      <c r="FR29"/>
+      <c r="FS29"/>
+      <c r="FT29"/>
+      <c r="FU29"/>
+      <c r="FV29"/>
+      <c r="FW29"/>
+      <c r="FX29"/>
+      <c r="FY29"/>
+      <c r="FZ29"/>
+      <c r="GA29"/>
+      <c r="GB29"/>
+      <c r="GC29"/>
+      <c r="GD29"/>
+      <c r="GE29"/>
+      <c r="GF29"/>
+      <c r="GG29"/>
+      <c r="GH29"/>
+      <c r="GI29"/>
+      <c r="GJ29"/>
+      <c r="GK29"/>
+      <c r="GL29"/>
+      <c r="GM29"/>
+      <c r="GN29"/>
+      <c r="GO29"/>
+      <c r="GP29"/>
+      <c r="GQ29"/>
+      <c r="GR29"/>
+      <c r="GS29"/>
+      <c r="GT29"/>
+      <c r="GU29"/>
+      <c r="GV29"/>
+      <c r="GW29"/>
+      <c r="GX29"/>
+      <c r="GY29"/>
+      <c r="GZ29"/>
+      <c r="HA29"/>
+      <c r="HB29"/>
+      <c r="HC29"/>
+      <c r="HD29"/>
+      <c r="HE29"/>
+      <c r="HF29"/>
+      <c r="HG29"/>
+      <c r="HH29"/>
+      <c r="HI29"/>
+      <c r="HJ29"/>
+      <c r="HK29"/>
+      <c r="HL29"/>
+      <c r="HM29"/>
+      <c r="HN29"/>
+      <c r="HO29"/>
+      <c r="HP29"/>
+      <c r="HQ29"/>
+      <c r="HR29"/>
+      <c r="HS29"/>
+      <c r="HT29"/>
+      <c r="HU29"/>
+      <c r="HV29"/>
+      <c r="HW29"/>
+      <c r="HX29"/>
+      <c r="HY29"/>
+      <c r="HZ29"/>
+      <c r="IA29"/>
+      <c r="IB29"/>
+      <c r="IC29"/>
+      <c r="ID29"/>
+      <c r="IE29"/>
+      <c r="IF29"/>
+      <c r="IG29"/>
+      <c r="IH29"/>
+      <c r="II29"/>
+      <c r="IJ29"/>
+      <c r="IK29"/>
+      <c r="IL29"/>
+      <c r="IM29"/>
+      <c r="IN29"/>
+      <c r="IO29"/>
+      <c r="IP29"/>
+      <c r="IQ29"/>
+      <c r="IR29"/>
+      <c r="IS29"/>
+      <c r="IT29"/>
+      <c r="IU29"/>
+      <c r="IV29"/>
+      <c r="IW29"/>
+      <c r="IX29"/>
+    </row>
+    <row r="30" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4">
+        <f ca="1">B28-TODAY()</f>
+        <v>157</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+      <c r="AL30"/>
+      <c r="AM30"/>
+      <c r="AN30"/>
+      <c r="AO30"/>
+      <c r="AP30"/>
+      <c r="AQ30"/>
+      <c r="AR30"/>
+      <c r="AS30"/>
+      <c r="AT30"/>
+      <c r="AU30"/>
+      <c r="AV30"/>
+      <c r="AW30"/>
+      <c r="AX30"/>
+      <c r="AY30"/>
+      <c r="AZ30"/>
+      <c r="BA30"/>
+      <c r="BB30"/>
+      <c r="BC30"/>
+      <c r="BD30"/>
+      <c r="BE30"/>
+      <c r="BF30"/>
+      <c r="BG30"/>
+      <c r="BH30"/>
+      <c r="BI30"/>
+      <c r="BJ30"/>
+      <c r="BK30"/>
+      <c r="BL30"/>
+      <c r="BM30"/>
+      <c r="BN30"/>
+      <c r="BO30"/>
+      <c r="BP30"/>
+      <c r="BQ30"/>
+      <c r="BR30"/>
+      <c r="BS30"/>
+      <c r="BT30"/>
+      <c r="BU30"/>
+      <c r="BV30"/>
+      <c r="BW30"/>
+      <c r="BX30"/>
+      <c r="BY30"/>
+      <c r="BZ30"/>
+      <c r="CA30"/>
+      <c r="CB30"/>
+      <c r="CC30"/>
+      <c r="CD30"/>
+      <c r="CE30"/>
+      <c r="CF30"/>
+      <c r="CG30"/>
+      <c r="CH30"/>
+      <c r="CI30"/>
+      <c r="CJ30"/>
+      <c r="CK30"/>
+      <c r="CL30"/>
+      <c r="CM30"/>
+      <c r="CN30"/>
+      <c r="CO30"/>
+      <c r="CP30"/>
+      <c r="CQ30"/>
+      <c r="CR30"/>
+      <c r="CS30"/>
+      <c r="CT30"/>
+      <c r="CU30"/>
+      <c r="CV30"/>
+      <c r="CW30"/>
+      <c r="CX30"/>
+      <c r="CY30"/>
+      <c r="CZ30"/>
+      <c r="DA30"/>
+      <c r="DB30"/>
+      <c r="DC30"/>
+      <c r="DD30"/>
+      <c r="DE30"/>
+      <c r="DF30"/>
+      <c r="DG30"/>
+      <c r="DH30"/>
+      <c r="DI30"/>
+      <c r="DJ30"/>
+      <c r="DK30"/>
+      <c r="DL30"/>
+      <c r="DM30"/>
+      <c r="DN30"/>
+      <c r="DO30"/>
+      <c r="DP30"/>
+      <c r="DQ30"/>
+      <c r="DR30"/>
+      <c r="DS30"/>
+      <c r="DT30"/>
+      <c r="DU30"/>
+      <c r="DV30"/>
+      <c r="DW30"/>
+      <c r="DX30"/>
+      <c r="DY30"/>
+      <c r="DZ30"/>
+      <c r="EA30"/>
+      <c r="EB30"/>
+      <c r="EC30"/>
+      <c r="ED30"/>
+      <c r="EE30"/>
+      <c r="EF30"/>
+      <c r="EG30"/>
+      <c r="EH30"/>
+      <c r="EI30"/>
+      <c r="EJ30"/>
+      <c r="EK30"/>
+      <c r="EL30"/>
+      <c r="EM30"/>
+      <c r="EN30"/>
+      <c r="EO30"/>
+      <c r="EP30"/>
+      <c r="EQ30"/>
+      <c r="ER30"/>
+      <c r="ES30"/>
+      <c r="ET30"/>
+      <c r="EU30"/>
+      <c r="EV30"/>
+      <c r="EW30"/>
+      <c r="EX30"/>
+      <c r="EY30"/>
+      <c r="EZ30"/>
+      <c r="FA30"/>
+      <c r="FB30"/>
+      <c r="FC30"/>
+      <c r="FD30"/>
+      <c r="FE30"/>
+      <c r="FF30"/>
+      <c r="FG30"/>
+      <c r="FH30"/>
+      <c r="FI30"/>
+      <c r="FJ30"/>
+      <c r="FK30"/>
+      <c r="FL30"/>
+      <c r="FM30"/>
+      <c r="FN30"/>
+      <c r="FO30"/>
+      <c r="FP30"/>
+      <c r="FQ30"/>
+      <c r="FR30"/>
+      <c r="FS30"/>
+      <c r="FT30"/>
+      <c r="FU30"/>
+      <c r="FV30"/>
+      <c r="FW30"/>
+      <c r="FX30"/>
+      <c r="FY30"/>
+      <c r="FZ30"/>
+      <c r="GA30"/>
+      <c r="GB30"/>
+      <c r="GC30"/>
+      <c r="GD30"/>
+      <c r="GE30"/>
+      <c r="GF30"/>
+      <c r="GG30"/>
+      <c r="GH30"/>
+      <c r="GI30"/>
+      <c r="GJ30"/>
+      <c r="GK30"/>
+      <c r="GL30"/>
+      <c r="GM30"/>
+      <c r="GN30"/>
+      <c r="GO30"/>
+      <c r="GP30"/>
+      <c r="GQ30"/>
+      <c r="GR30"/>
+      <c r="GS30"/>
+      <c r="GT30"/>
+      <c r="GU30"/>
+      <c r="GV30"/>
+      <c r="GW30"/>
+      <c r="GX30"/>
+      <c r="GY30"/>
+      <c r="GZ30"/>
+      <c r="HA30"/>
+      <c r="HB30"/>
+      <c r="HC30"/>
+      <c r="HD30"/>
+      <c r="HE30"/>
+      <c r="HF30"/>
+      <c r="HG30"/>
+      <c r="HH30"/>
+      <c r="HI30"/>
+      <c r="HJ30"/>
+      <c r="HK30"/>
+      <c r="HL30"/>
+      <c r="HM30"/>
+      <c r="HN30"/>
+      <c r="HO30"/>
+      <c r="HP30"/>
+      <c r="HQ30"/>
+      <c r="HR30"/>
+      <c r="HS30"/>
+      <c r="HT30"/>
+      <c r="HU30"/>
+      <c r="HV30"/>
+      <c r="HW30"/>
+      <c r="HX30"/>
+      <c r="HY30"/>
+      <c r="HZ30"/>
+      <c r="IA30"/>
+      <c r="IB30"/>
+      <c r="IC30"/>
+      <c r="ID30"/>
+      <c r="IE30"/>
+      <c r="IF30"/>
+      <c r="IG30"/>
+      <c r="IH30"/>
+      <c r="II30"/>
+      <c r="IJ30"/>
+      <c r="IK30"/>
+      <c r="IL30"/>
+      <c r="IM30"/>
+      <c r="IN30"/>
+      <c r="IO30"/>
+      <c r="IP30"/>
+      <c r="IQ30"/>
+      <c r="IR30"/>
+      <c r="IS30"/>
+      <c r="IT30"/>
+      <c r="IU30"/>
+      <c r="IV30"/>
+      <c r="IW30"/>
+      <c r="IX30"/>
+    </row>
+    <row r="31" spans="1:258" x14ac:dyDescent="0.25">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31"/>
+      <c r="V31"/>
+      <c r="W31"/>
+      <c r="X31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+      <c r="AC31"/>
+      <c r="AD31"/>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+      <c r="AL31"/>
+      <c r="AM31"/>
+      <c r="AN31"/>
+      <c r="AO31"/>
+      <c r="AP31"/>
+      <c r="AQ31"/>
+      <c r="AR31"/>
+      <c r="AS31"/>
+      <c r="AT31"/>
+      <c r="AU31"/>
+      <c r="AV31"/>
+      <c r="AW31"/>
+      <c r="AX31"/>
+      <c r="AY31"/>
+      <c r="AZ31"/>
+      <c r="BA31"/>
+      <c r="BB31"/>
+      <c r="BC31"/>
+      <c r="BD31"/>
+      <c r="BE31"/>
+      <c r="BF31"/>
+      <c r="BG31"/>
+      <c r="BH31"/>
+      <c r="BI31"/>
+      <c r="BJ31"/>
+      <c r="BK31"/>
+      <c r="BL31"/>
+      <c r="BM31"/>
+      <c r="BN31"/>
+      <c r="BO31"/>
+      <c r="BP31"/>
+      <c r="BQ31"/>
+      <c r="BR31"/>
+      <c r="BS31"/>
+      <c r="BT31"/>
+      <c r="BU31"/>
+      <c r="BV31"/>
+      <c r="BW31"/>
+      <c r="BX31"/>
+      <c r="BY31"/>
+      <c r="BZ31"/>
+      <c r="CA31"/>
+      <c r="CB31"/>
+      <c r="CC31"/>
+      <c r="CD31"/>
+      <c r="CE31"/>
+      <c r="CF31"/>
+      <c r="CG31"/>
+      <c r="CH31"/>
+      <c r="CI31"/>
+      <c r="CJ31"/>
+      <c r="CK31"/>
+      <c r="CL31"/>
+      <c r="CM31"/>
+      <c r="CN31"/>
+      <c r="CO31"/>
+      <c r="CP31"/>
+      <c r="CQ31"/>
+      <c r="CR31"/>
+      <c r="CS31"/>
+      <c r="CT31"/>
+      <c r="CU31"/>
+      <c r="CV31"/>
+      <c r="CW31"/>
+      <c r="CX31"/>
+      <c r="CY31"/>
+      <c r="CZ31"/>
+      <c r="DA31"/>
+      <c r="DB31"/>
+      <c r="DC31"/>
+      <c r="DD31"/>
+      <c r="DE31"/>
+      <c r="DF31"/>
+      <c r="DG31"/>
+      <c r="DH31"/>
+      <c r="DI31"/>
+      <c r="DJ31"/>
+      <c r="DK31"/>
+      <c r="DL31"/>
+      <c r="DM31"/>
+      <c r="DN31"/>
+      <c r="DO31"/>
+      <c r="DP31"/>
+      <c r="DQ31"/>
+      <c r="DR31"/>
+      <c r="DS31"/>
+      <c r="DT31"/>
+      <c r="DU31"/>
+      <c r="DV31"/>
+      <c r="DW31"/>
+      <c r="DX31"/>
+      <c r="DY31"/>
+      <c r="DZ31"/>
+      <c r="EA31"/>
+      <c r="EB31"/>
+      <c r="EC31"/>
+      <c r="ED31"/>
+      <c r="EE31"/>
+      <c r="EF31"/>
+      <c r="EG31"/>
+      <c r="EH31"/>
+      <c r="EI31"/>
+      <c r="EJ31"/>
+      <c r="EK31"/>
+      <c r="EL31"/>
+      <c r="EM31"/>
+      <c r="EN31"/>
+      <c r="EO31"/>
+      <c r="EP31"/>
+      <c r="EQ31"/>
+      <c r="ER31"/>
+      <c r="ES31"/>
+      <c r="ET31"/>
+      <c r="EU31"/>
+      <c r="EV31"/>
+      <c r="EW31"/>
+      <c r="EX31"/>
+      <c r="EY31"/>
+      <c r="EZ31"/>
+      <c r="FA31"/>
+      <c r="FB31"/>
+      <c r="FC31"/>
+      <c r="FD31"/>
+      <c r="FE31"/>
+      <c r="FF31"/>
+      <c r="FG31"/>
+      <c r="FH31"/>
+      <c r="FI31"/>
+      <c r="FJ31"/>
+      <c r="FK31"/>
+      <c r="FL31"/>
+      <c r="FM31"/>
+      <c r="FN31"/>
+      <c r="FO31"/>
+      <c r="FP31"/>
+      <c r="FQ31"/>
+      <c r="FR31"/>
+      <c r="FS31"/>
+      <c r="FT31"/>
+      <c r="FU31"/>
+      <c r="FV31"/>
+      <c r="FW31"/>
+      <c r="FX31"/>
+      <c r="FY31"/>
+      <c r="FZ31"/>
+      <c r="GA31"/>
+      <c r="GB31"/>
+      <c r="GC31"/>
+      <c r="GD31"/>
+      <c r="GE31"/>
+      <c r="GF31"/>
+      <c r="GG31"/>
+      <c r="GH31"/>
+      <c r="GI31"/>
+      <c r="GJ31"/>
+      <c r="GK31"/>
+      <c r="GL31"/>
+      <c r="GM31"/>
+      <c r="GN31"/>
+      <c r="GO31"/>
+      <c r="GP31"/>
+      <c r="GQ31"/>
+      <c r="GR31"/>
+      <c r="GS31"/>
+      <c r="GT31"/>
+      <c r="GU31"/>
+      <c r="GV31"/>
+      <c r="GW31"/>
+      <c r="GX31"/>
+      <c r="GY31"/>
+      <c r="GZ31"/>
+      <c r="HA31"/>
+      <c r="HB31"/>
+      <c r="HC31"/>
+      <c r="HD31"/>
+      <c r="HE31"/>
+      <c r="HF31"/>
+      <c r="HG31"/>
+      <c r="HH31"/>
+      <c r="HI31"/>
+      <c r="HJ31"/>
+      <c r="HK31"/>
+      <c r="HL31"/>
+      <c r="HM31"/>
+      <c r="HN31"/>
+      <c r="HO31"/>
+      <c r="HP31"/>
+      <c r="HQ31"/>
+      <c r="HR31"/>
+      <c r="HS31"/>
+      <c r="HT31"/>
+      <c r="HU31"/>
+      <c r="HV31"/>
+      <c r="HW31"/>
+      <c r="HX31"/>
+      <c r="HY31"/>
+      <c r="HZ31"/>
+      <c r="IA31"/>
+      <c r="IB31"/>
+      <c r="IC31"/>
+      <c r="ID31"/>
+      <c r="IE31"/>
+      <c r="IF31"/>
+      <c r="IG31"/>
+      <c r="IH31"/>
+      <c r="II31"/>
+      <c r="IJ31"/>
+      <c r="IK31"/>
+      <c r="IL31"/>
+      <c r="IM31"/>
+      <c r="IN31"/>
+      <c r="IO31"/>
+      <c r="IP31"/>
+      <c r="IQ31"/>
+      <c r="IR31"/>
+      <c r="IS31"/>
+      <c r="IT31"/>
+      <c r="IU31"/>
+      <c r="IV31"/>
+      <c r="IW31"/>
+      <c r="IX31"/>
+    </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
+  <mergeCells count="28">
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:AK3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:AK3"/>
-    <mergeCell ref="AL3:AO3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
-  <conditionalFormatting sqref="E5:AO20">
+  <conditionalFormatting sqref="E5:AO23">
     <cfRule type="expression" dxfId="7" priority="3">
       <formula>AND(E$4&gt;=$C5,E$4 &lt;$D5)</formula>
     </cfRule>
@@ -4338,7 +4301,7 @@
       <formula>E$4 &lt; TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:AO5 E8:AO8 E14:AO14 E17:AO18">
+  <conditionalFormatting sqref="E5:AO5 E9:AO9 E15:AO15 E18:AO18 E21:AO21">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(E$4&gt;=$C5,E$4&lt;$D5)</formula>
     </cfRule>
